--- a/Data/表3-4.xlsx
+++ b/Data/表3-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHD\HPCA2025\Codes\Iron_Roofline\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B125FD95-0C79-4A0E-92E0-A76284C00F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B32F7B-5287-4486-8DD9-3367E805BF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-315" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="870" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1778,129 +1778,161 @@
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>70</v>
-      </c>
-      <c r="B42" s="4">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="C42" s="4">
-        <v>5.2460000000000004</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4.9880000000000004</v>
-      </c>
-      <c r="E42" s="4">
-        <v>4.907</v>
-      </c>
-      <c r="F42" s="4">
-        <v>4.6459999999999999</v>
-      </c>
-      <c r="G42" s="4">
-        <v>4.4059999999999997</v>
-      </c>
-      <c r="H42" s="4">
-        <v>4.1360000000000001</v>
-      </c>
-      <c r="I42" s="4">
-        <v>4.1429999999999998</v>
+        <v>68</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4.8860000000000001</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4.42</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="I42" s="2">
+        <v>3.9940000000000002</v>
       </c>
       <c r="J42" s="4">
-        <v>3.6909999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B43" s="4">
-        <v>5.1440000000000001</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="C43" s="4">
-        <v>5.2960000000000003</v>
+        <v>5.2460000000000004</v>
       </c>
       <c r="D43" s="4">
-        <v>5.0609999999999999</v>
+        <v>4.9880000000000004</v>
       </c>
       <c r="E43" s="4">
-        <v>4.9279999999999999</v>
+        <v>4.907</v>
       </c>
       <c r="F43" s="4">
-        <v>4.7210000000000001</v>
+        <v>4.6459999999999999</v>
       </c>
       <c r="G43" s="4">
-        <v>4.4260000000000002</v>
+        <v>4.4059999999999997</v>
       </c>
       <c r="H43" s="4">
-        <v>4.17</v>
+        <v>4.1360000000000001</v>
       </c>
       <c r="I43" s="4">
-        <v>4.173</v>
+        <v>4.1429999999999998</v>
       </c>
       <c r="J43" s="4">
-        <v>3.7040000000000002</v>
+        <v>3.6909999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B44" s="4">
-        <v>5.149</v>
+        <v>5.1440000000000001</v>
       </c>
       <c r="C44" s="4">
-        <v>5.3769999999999998</v>
+        <v>5.2960000000000003</v>
       </c>
       <c r="D44" s="4">
-        <v>5.0839999999999996</v>
+        <v>5.0609999999999999</v>
       </c>
       <c r="E44" s="4">
-        <v>4.99</v>
+        <v>4.9279999999999999</v>
       </c>
       <c r="F44" s="4">
-        <v>4.7270000000000003</v>
+        <v>4.7210000000000001</v>
       </c>
       <c r="G44" s="4">
-        <v>4.431</v>
+        <v>4.4260000000000002</v>
       </c>
       <c r="H44" s="4">
-        <v>4.2089999999999996</v>
+        <v>4.17</v>
       </c>
       <c r="I44" s="4">
-        <v>4.1790000000000003</v>
+        <v>4.173</v>
       </c>
       <c r="J44" s="4">
-        <v>3.718</v>
+        <v>3.7040000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
+        <v>80</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5.149</v>
+      </c>
+      <c r="C45" s="4">
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="D45" s="4">
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="E45" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="F45" s="4">
+        <v>4.7270000000000003</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4.431</v>
+      </c>
+      <c r="H45" s="4">
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="J45" s="4">
+        <v>3.718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>84</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B46" s="4">
         <v>5.1749999999999998</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C46" s="4">
         <v>5.3650000000000002</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D46" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <v>5.0069999999999997</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="4">
         <v>4.7409999999999997</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="4">
         <v>4.4329999999999998</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <v>4.2240000000000002</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="4">
         <v>3.7450000000000001</v>
       </c>
     </row>

--- a/Data/表3-4.xlsx
+++ b/Data/表3-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHD\HPCA2025\Codes\Iron_Roofline\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B32F7B-5287-4486-8DD9-3367E805BF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8401C622-E176-4FEE-9327-3A8C9A4D72C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="870" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-315" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Prefill length</t>
   </si>
@@ -52,13 +52,2899 @@
       </rPr>
       <t>数据条数</t>
     </r>
+  </si>
+  <si>
+    <t>tree shape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 2 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <t>4 16 16 16 16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +2971,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +3057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -174,6 +3072,12 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,52 +3360,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2">
         <v>128</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>256</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>512</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>1024</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2048</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>4096</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>8192</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>16384</v>
-      </c>
-      <c r="J1" s="2">
-        <v>32768</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>50</v>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>50</v>
@@ -522,1419 +3427,1422 @@
         <v>50</v>
       </c>
       <c r="I2" s="4">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4">
         <v>25</v>
-      </c>
-      <c r="J2" s="4">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4">
         <v>1.8029999999999999</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>1.827</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>1.8120000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>1.792</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>1.776</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>1.772</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>1.74</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>1.736</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1.6419999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
         <v>2.3959999999999999</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>2.4620000000000002</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>2.4140000000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>2.3769999999999998</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>2.3319999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>2.27</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>2.1800000000000002</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>2.2029999999999998</v>
       </c>
-      <c r="J4" s="4">
-        <v>1.9710000000000001</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
         <v>2.5049999999999999</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>2.5299999999999998</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>2.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>2.4740000000000002</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>2.4289999999999998</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>2.371</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2.2909999999999999</v>
       </c>
       <c r="I5" s="4">
         <v>2.2909999999999999</v>
       </c>
       <c r="J5" s="4">
-        <v>2.0649999999999999</v>
+        <v>2.2909999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
         <v>2.6059999999999999</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>2.645</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>2.61</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>2.5859999999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>2.5339999999999998</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>2.4889999999999999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>2.3959999999999999</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>2.42</v>
       </c>
-      <c r="J6" s="4">
-        <v>2.262</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
         <v>3.073</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>3.17</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>3.081</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>3.0249999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>2.879</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>2.7970000000000002</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>2.6819999999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>2.7250000000000001</v>
       </c>
-      <c r="J7" s="4">
-        <v>2.5720000000000001</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
         <v>3.073</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>3.177</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>3.1160000000000001</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>3.0529999999999999</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>2.9260000000000002</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>2.851</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>2.7210000000000001</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>2.7589999999999999</v>
       </c>
-      <c r="J8" s="4">
-        <v>2.6080000000000001</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
         <v>3.1440000000000001</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>3.2320000000000002</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>3.1560000000000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>3.109</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>2.9809999999999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>2.911</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>2.7949999999999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>2.831</v>
       </c>
-      <c r="J9" s="4">
-        <v>2.5920000000000001</v>
-      </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
         <v>3.2669999999999999</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>3.3119999999999998</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>3.2480000000000002</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>3.2080000000000002</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>3.0830000000000002</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>3.012</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>2.879</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>2.9049999999999998</v>
       </c>
-      <c r="J10" s="4">
-        <v>2.6539999999999999</v>
-      </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
         <v>3.2490000000000001</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>3.3370000000000002</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>3.2810000000000001</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>3.2290000000000001</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>3.12</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>3.0270000000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>2.8929999999999998</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>2.9319999999999999</v>
       </c>
-      <c r="J11" s="4">
-        <v>2.6850000000000001</v>
-      </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
         <v>3.3090000000000002</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>3.371</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>3.2930000000000001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>3.2530000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>3.1469999999999998</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>3.0760000000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>2.9209999999999998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>2.9590000000000001</v>
       </c>
-      <c r="J12" s="4">
-        <v>2.7309999999999999</v>
-      </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
         <v>3.3620000000000001</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>3.41</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>3.3380000000000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>3.3170000000000002</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>3.2040000000000002</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>3.1309999999999998</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>3.0030000000000001</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>2.9969999999999999</v>
       </c>
-      <c r="J13" s="4">
-        <v>2.9460000000000002</v>
-      </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
         <v>3.65</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>3.7949999999999999</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>3.6720000000000002</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>3.6110000000000002</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>3.4289999999999998</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>3.3450000000000002</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>3.16</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>3.1389999999999998</v>
       </c>
-      <c r="J14" s="4">
-        <v>2.7869999999999999</v>
-      </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4">
         <v>3.7410000000000001</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>3.7970000000000002</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>3.7170000000000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>3.6480000000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>3.444</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>3.367</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>3.1680000000000001</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>3.1720000000000002</v>
       </c>
-      <c r="J15" s="4">
-        <v>2.9470000000000001</v>
-      </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
         <v>3.831</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>3.9209999999999998</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>3.778</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>3.7320000000000002</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>3.5489999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>3.4420000000000002</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>3.2589999999999999</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>3.2280000000000002</v>
       </c>
-      <c r="J16" s="4">
-        <v>3.1040000000000001</v>
-      </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
         <v>3.875</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>3.95</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>3.782</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>3.7690000000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>3.5830000000000002</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>3.4649999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>3.3</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>3.2679999999999998</v>
       </c>
-      <c r="J17" s="4">
-        <v>3.0019999999999998</v>
-      </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
         <v>3.9249999999999998</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>3.93</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>3.8069999999999999</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>3.7959999999999998</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>3.5920000000000001</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>3.5070000000000001</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>3.3260000000000001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>3.278</v>
       </c>
-      <c r="J18" s="4">
-        <v>3.1840000000000002</v>
-      </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
         <v>3.9169999999999998</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>3.94</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>3.8370000000000002</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>3.8079999999999998</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>3.5990000000000002</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>3.532</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>3.335</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>3.2919999999999998</v>
       </c>
-      <c r="J19" s="4">
-        <v>3.05</v>
-      </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
         <v>3.9060000000000001</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>3.9769999999999999</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>3.8540000000000001</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>3.8420000000000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>3.6179999999999999</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>3.5419999999999998</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>3.3290000000000002</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>3.33</v>
       </c>
-      <c r="J20" s="4">
-        <v>3.09</v>
-      </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
         <v>3.9129999999999998</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>3.984</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>3.8620000000000001</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>3.8450000000000002</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>3.61</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>3.5579999999999998</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>3.343</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>3.3330000000000002</v>
       </c>
-      <c r="J21" s="4">
-        <v>3.2839999999999998</v>
-      </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
         <v>4.1849999999999996</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>4.2869999999999999</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>4.1189999999999998</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>4.069</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>3.8439999999999999</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>3.6779999999999999</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>3.4649999999999999</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>3.4449999999999998</v>
       </c>
-      <c r="J22" s="4">
-        <v>3.1389999999999998</v>
-      </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
         <v>4.1980000000000004</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>4.2880000000000003</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>4.2169999999999996</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>4.1180000000000003</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>3.91</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>3.738</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>3.5019999999999998</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>3.5259999999999998</v>
       </c>
-      <c r="J23" s="4">
-        <v>3.1739999999999999</v>
-      </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>24</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4">
         <v>4.2640000000000002</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>4.3339999999999996</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>4.2389999999999999</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>4.1269999999999998</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>3.9079999999999999</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>3.7639999999999998</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>3.5390000000000001</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>3.5659999999999998</v>
       </c>
-      <c r="J24" s="4">
-        <v>3.218</v>
-      </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>26</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
         <v>4.2939999999999996</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>4.3380000000000001</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>4.2489999999999997</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>4.1710000000000003</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>3.9529999999999998</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>3.7869999999999999</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>3.5510000000000002</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>3.5859999999999999</v>
       </c>
-      <c r="J25" s="4">
-        <v>3.2629999999999999</v>
-      </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>28</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
         <v>4.28</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>4.46</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>4.1950000000000003</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>4.0039999999999996</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>3.7770000000000001</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>3.5950000000000002</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>3.609</v>
       </c>
-      <c r="J26" s="4">
-        <v>3.266</v>
-      </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>30</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
         <v>4.34</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>4.3970000000000002</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>4.335</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>4.22</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>3.996</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>3.859</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>3.6120000000000001</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>3.64</v>
       </c>
-      <c r="J27" s="4">
-        <v>3.4489999999999998</v>
-      </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>32</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
         <v>4.33</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>4.45</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>4.351</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>4.2350000000000003</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>4.0430000000000001</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>3.8820000000000001</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>3.6280000000000001</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>3.67</v>
       </c>
-      <c r="J28" s="4">
-        <v>3.33</v>
-      </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>34</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
         <v>4.4370000000000003</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>4.5369999999999999</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>4.4009999999999998</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>4.3339999999999996</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>4.1210000000000004</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>3.931</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>3.726</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>3.7050000000000001</v>
       </c>
-      <c r="J29" s="4">
-        <v>3.5249999999999999</v>
-      </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>36</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
         <v>4.4939999999999998</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>4.5199999999999996</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>4.4169999999999998</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>4.335</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>4.117</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>3.927</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>3.7240000000000002</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>3.7519999999999998</v>
       </c>
-      <c r="J30" s="4">
-        <v>3.5630000000000002</v>
-      </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>38</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4">
         <v>4.423</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>4.609</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>4.4420000000000002</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>4.37</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>4.133</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>3.9550000000000001</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>3.7290000000000001</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>3.7759999999999998</v>
       </c>
-      <c r="J31" s="4">
-        <v>3.6</v>
-      </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>40</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
         <v>4.4770000000000003</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>4.593</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>4.4550000000000001</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>4.3789999999999996</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>4.1520000000000001</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>3.9710000000000001</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>3.6930000000000001</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>3.7770000000000001</v>
       </c>
-      <c r="J32" s="4">
-        <v>3.423</v>
-      </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>43</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4">
         <v>4.8209999999999997</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>4.875</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>4.6609999999999996</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>4.5730000000000004</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>4.3209999999999997</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>4.1189999999999998</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>3.9420000000000002</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>3.8730000000000002</v>
       </c>
-      <c r="J33" s="4">
-        <v>3.4969999999999999</v>
-      </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>46</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
         <v>4.8810000000000002</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>5.0229999999999997</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>4.8049999999999997</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>4.6719999999999997</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>4.3680000000000003</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>4.1630000000000003</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>4.0119999999999996</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>3.9060000000000001</v>
       </c>
-      <c r="J34" s="4">
-        <v>3.5659999999999998</v>
-      </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>49</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
         <v>4.8550000000000004</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>4.9969999999999999</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>4.84</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>4.6870000000000003</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>4.4130000000000003</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>4.2080000000000002</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>3.984</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>3.948</v>
       </c>
-      <c r="J35" s="4">
-        <v>3.5830000000000002</v>
-      </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>52</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4">
         <v>4.8529999999999998</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>5.07</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>4.83</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>4.694</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>4.4119999999999999</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>4.2249999999999996</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>3.9740000000000002</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>3.9820000000000002</v>
       </c>
-      <c r="J36" s="4">
-        <v>3.4780000000000002</v>
-      </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>55</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
         <v>4.9420000000000002</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>5.0869999999999997</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>4.8360000000000003</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>4.7249999999999996</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>4.4489999999999998</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>4.2770000000000001</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>4.0270000000000001</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>3.98</v>
       </c>
-      <c r="J37" s="4">
-        <v>3.6120000000000001</v>
-      </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>58</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
         <v>4.9379999999999997</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>5.1589999999999998</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>4.88</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>4.7569999999999997</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>4.4770000000000003</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>4.28</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>4.0129999999999999</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>4.0250000000000004</v>
       </c>
-      <c r="J38" s="4">
-        <v>3.6560000000000001</v>
-      </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>61</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4">
         <v>5.024</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>5.1859999999999999</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>4.883</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>4.8280000000000003</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>4.5759999999999996</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>4.2939999999999996</v>
       </c>
-      <c r="H39" s="4">
+      <c r="I39" s="4">
         <v>4.0620000000000003</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>4.0730000000000004</v>
       </c>
-      <c r="J39" s="4">
-        <v>3.5219999999999998</v>
-      </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>64</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4">
         <v>4.96</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>5.1280000000000001</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>4.9409999999999998</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>4.8289999999999997</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>4.5510000000000002</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>4.351</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>4.0919999999999996</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>4.0890000000000004</v>
       </c>
-      <c r="J40" s="4">
-        <v>3.6560000000000001</v>
-      </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>67</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4">
         <v>5.0869999999999997</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>5.1980000000000004</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>4.9930000000000003</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>4.87</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>4.6280000000000001</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>4.3570000000000002</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>4.1059999999999999</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>4.1109999999999998</v>
-      </c>
-      <c r="J41" s="4">
-        <v>3.9460000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>68</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1">
         <v>4.7699999999999996</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <v>4.8860000000000001</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>4.7469999999999999</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>4.6310000000000002</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>4.42</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>4.2210000000000001</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>3.9550000000000001</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>3.9940000000000002</v>
       </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>70</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4">
         <v>5.0599999999999996</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>5.2460000000000004</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>4.9880000000000004</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>4.907</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>4.6459999999999999</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>4.4059999999999997</v>
       </c>
-      <c r="H43" s="4">
+      <c r="I43" s="4">
         <v>4.1360000000000001</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>4.1429999999999998</v>
       </c>
-      <c r="J43" s="4">
-        <v>3.6909999999999998</v>
-      </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>75</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="4">
         <v>5.1440000000000001</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>5.2960000000000003</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>5.0609999999999999</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>4.9279999999999999</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>4.7210000000000001</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>4.4260000000000002</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>4.17</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>4.173</v>
       </c>
-      <c r="J44" s="4">
-        <v>3.7040000000000002</v>
-      </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>80</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="4">
         <v>5.149</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>5.3769999999999998</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>5.0839999999999996</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>4.99</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>4.7270000000000003</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>4.431</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>4.2089999999999996</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>4.1790000000000003</v>
       </c>
-      <c r="J45" s="4">
-        <v>3.718</v>
-      </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>84</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4">
         <v>5.1749999999999998</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>5.3650000000000002</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>5.0069999999999997</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>4.7409999999999997</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>4.4329999999999998</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>4.2240000000000002</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="J46" s="4">
-        <v>3.7450000000000001</v>
-      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D48" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Data/表3-4.xlsx
+++ b/Data/表3-4.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHD\HPCA2025\Codes\Iron_Roofline\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8401C622-E176-4FEE-9327-3A8C9A4D72C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8968A666-D1F9-436F-910F-589D3223BCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-315" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Prefill length</t>
   </si>
@@ -2937,6 +2938,22 @@
   </si>
   <si>
     <t>1 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索出的36个节点：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>naïve的36个节点：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 8 8 8 8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬，搜索出来的还不如naïve的，艹！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3363,12 +3380,13 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="16" max="16" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4297,36 +4315,36 @@
         <v>3.7050000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4">
-        <v>4.4939999999999998</v>
-      </c>
-      <c r="D30" s="4">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="E30" s="4">
-        <v>4.4169999999999998</v>
-      </c>
-      <c r="F30" s="4">
-        <v>4.335</v>
-      </c>
-      <c r="G30" s="4">
-        <v>4.117</v>
-      </c>
-      <c r="H30" s="4">
-        <v>3.927</v>
-      </c>
-      <c r="I30" s="4">
-        <v>3.7240000000000002</v>
-      </c>
-      <c r="J30" s="4">
-        <v>3.7519999999999998</v>
+        <v>49</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4.5460000000000003</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4.4770000000000003</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4.157</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4.0090000000000003</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3.7370000000000001</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3.758</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4849,4 +4867,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B21926C-BFA1-417D-9643-DF3CCE97E8CD}">
+  <dimension ref="A10:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.4939999999999998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.4169999999999998</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.335</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4.117</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3.927</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3.7240000000000002</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3.7519999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.5460000000000003</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.4770000000000003</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.157</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4.0090000000000003</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3.7370000000000001</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3.758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/表3-4.xlsx
+++ b/Data/表3-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHD\HPCA2025\Codes\Iron_Roofline\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8968A666-D1F9-436F-910F-589D3223BCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE29B5-CEC3-4408-BA32-83F3DE99594D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-315" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Prefill length</t>
   </si>
@@ -2954,6 +2954,10 @@
   </si>
   <si>
     <t>尴尬，搜索出来的还不如naïve的，艹！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始配置：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3377,10 +3381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4315,36 +4319,36 @@
         <v>3.7050000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4.5460000000000003</v>
-      </c>
-      <c r="D30" s="2">
-        <v>4.5919999999999996</v>
-      </c>
-      <c r="E30" s="2">
-        <v>4.4770000000000003</v>
-      </c>
-      <c r="F30" s="2">
-        <v>4.3949999999999996</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4.157</v>
-      </c>
-      <c r="H30" s="2">
-        <v>4.0090000000000003</v>
-      </c>
-      <c r="I30" s="2">
-        <v>3.7370000000000001</v>
-      </c>
-      <c r="J30" s="2">
-        <v>3.758</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4.4939999999999998</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4.4169999999999998</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4.335</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4.117</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3.927</v>
+      </c>
+      <c r="I30" s="4">
+        <v>3.7240000000000002</v>
+      </c>
+      <c r="J30" s="4">
+        <v>3.7519999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4699,168 +4703,136 @@
         <v>4.1109999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="D42" s="2">
-        <v>4.8860000000000001</v>
-      </c>
-      <c r="E42" s="2">
-        <v>4.7469999999999999</v>
-      </c>
-      <c r="F42" s="2">
-        <v>4.6310000000000002</v>
-      </c>
-      <c r="G42" s="2">
-        <v>4.42</v>
-      </c>
-      <c r="H42" s="2">
-        <v>4.2210000000000001</v>
-      </c>
-      <c r="I42" s="2">
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="J42" s="2">
-        <v>3.9940000000000002</v>
+        <v>40</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="E42" s="4">
+        <v>4.9880000000000004</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4.907</v>
+      </c>
+      <c r="G42" s="4">
+        <v>4.6459999999999999</v>
+      </c>
+      <c r="H42" s="4">
+        <v>4.4059999999999997</v>
+      </c>
+      <c r="I42" s="4">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="J42" s="4">
+        <v>4.1429999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4">
-        <v>5.0599999999999996</v>
+        <v>5.1440000000000001</v>
       </c>
       <c r="D43" s="4">
-        <v>5.2460000000000004</v>
+        <v>5.2960000000000003</v>
       </c>
       <c r="E43" s="4">
-        <v>4.9880000000000004</v>
+        <v>5.0609999999999999</v>
       </c>
       <c r="F43" s="4">
-        <v>4.907</v>
+        <v>4.9279999999999999</v>
       </c>
       <c r="G43" s="4">
-        <v>4.6459999999999999</v>
+        <v>4.7210000000000001</v>
       </c>
       <c r="H43" s="4">
-        <v>4.4059999999999997</v>
+        <v>4.4260000000000002</v>
       </c>
       <c r="I43" s="4">
-        <v>4.1360000000000001</v>
+        <v>4.17</v>
       </c>
       <c r="J43" s="4">
-        <v>4.1429999999999998</v>
+        <v>4.173</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="4">
-        <v>5.1440000000000001</v>
+        <v>5.149</v>
       </c>
       <c r="D44" s="4">
-        <v>5.2960000000000003</v>
+        <v>5.3769999999999998</v>
       </c>
       <c r="E44" s="4">
-        <v>5.0609999999999999</v>
+        <v>5.0839999999999996</v>
       </c>
       <c r="F44" s="4">
-        <v>4.9279999999999999</v>
+        <v>4.99</v>
       </c>
       <c r="G44" s="4">
-        <v>4.7210000000000001</v>
+        <v>4.7270000000000003</v>
       </c>
       <c r="H44" s="4">
-        <v>4.4260000000000002</v>
+        <v>4.431</v>
       </c>
       <c r="I44" s="4">
-        <v>4.17</v>
+        <v>4.2089999999999996</v>
       </c>
       <c r="J44" s="4">
-        <v>4.173</v>
+        <v>4.1790000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4">
-        <v>5.149</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="D45" s="4">
-        <v>5.3769999999999998</v>
+        <v>5.3650000000000002</v>
       </c>
       <c r="E45" s="4">
-        <v>5.0839999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F45" s="4">
-        <v>4.99</v>
+        <v>5.0069999999999997</v>
       </c>
       <c r="G45" s="4">
-        <v>4.7270000000000003</v>
+        <v>4.7409999999999997</v>
       </c>
       <c r="H45" s="4">
-        <v>4.431</v>
+        <v>4.4329999999999998</v>
       </c>
       <c r="I45" s="4">
-        <v>4.2089999999999996</v>
+        <v>4.2240000000000002</v>
       </c>
       <c r="J45" s="4">
-        <v>4.1790000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>84</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="4">
-        <v>5.1749999999999998</v>
-      </c>
-      <c r="D46" s="4">
-        <v>5.3650000000000002</v>
-      </c>
-      <c r="E46" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F46" s="4">
-        <v>5.0069999999999997</v>
-      </c>
-      <c r="G46" s="4">
-        <v>4.7409999999999997</v>
-      </c>
-      <c r="H46" s="4">
-        <v>4.4329999999999998</v>
-      </c>
-      <c r="I46" s="4">
-        <v>4.2240000000000002</v>
-      </c>
-      <c r="J46" s="4">
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D48" s="7"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D47" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4871,10 +4843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B21926C-BFA1-417D-9643-DF3CCE97E8CD}">
-  <dimension ref="A10:J17"/>
+  <dimension ref="A10:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4888,7 +4860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>36</v>
       </c>
@@ -4955,13 +4927,48 @@
         <v>3.758</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4.8860000000000001</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4.42</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3.9940000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/表3-4.xlsx
+++ b/Data/表3-4.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHD\HPCA2025\Codes\Iron_Roofline\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE29B5-CEC3-4408-BA32-83F3DE99594D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB0D6F-33CE-4287-8DDE-532A5ED21DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-315" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41610" yWindow="1530" windowWidth="28800" windowHeight="17175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Prefill length</t>
   </si>
@@ -2957,7 +2966,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>原始配置：</t>
+    <t>原始配置：在绘制AAT曲线的时候别要这行，在计算加速比的时候把这行插入sheet1的表格中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3381,10 +3390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4703,136 +4712,168 @@
         <v>4.1109999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="4">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="D42" s="4">
-        <v>5.2460000000000004</v>
-      </c>
-      <c r="E42" s="4">
-        <v>4.9880000000000004</v>
-      </c>
-      <c r="F42" s="4">
-        <v>4.907</v>
-      </c>
-      <c r="G42" s="4">
-        <v>4.6459999999999999</v>
-      </c>
-      <c r="H42" s="4">
-        <v>4.4059999999999997</v>
-      </c>
-      <c r="I42" s="4">
-        <v>4.1360000000000001</v>
-      </c>
-      <c r="J42" s="4">
-        <v>4.1429999999999998</v>
+        <v>43</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4.8860000000000001</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4.42</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="I42" s="2">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="J42" s="2">
+        <v>3.9940000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="4">
-        <v>5.1440000000000001</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="D43" s="4">
-        <v>5.2960000000000003</v>
+        <v>5.2460000000000004</v>
       </c>
       <c r="E43" s="4">
-        <v>5.0609999999999999</v>
+        <v>4.9880000000000004</v>
       </c>
       <c r="F43" s="4">
-        <v>4.9279999999999999</v>
+        <v>4.907</v>
       </c>
       <c r="G43" s="4">
-        <v>4.7210000000000001</v>
+        <v>4.6459999999999999</v>
       </c>
       <c r="H43" s="4">
-        <v>4.4260000000000002</v>
+        <v>4.4059999999999997</v>
       </c>
       <c r="I43" s="4">
-        <v>4.17</v>
+        <v>4.1360000000000001</v>
       </c>
       <c r="J43" s="4">
-        <v>4.173</v>
+        <v>4.1429999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="4">
-        <v>5.149</v>
+        <v>5.1440000000000001</v>
       </c>
       <c r="D44" s="4">
-        <v>5.3769999999999998</v>
+        <v>5.2960000000000003</v>
       </c>
       <c r="E44" s="4">
-        <v>5.0839999999999996</v>
+        <v>5.0609999999999999</v>
       </c>
       <c r="F44" s="4">
-        <v>4.99</v>
+        <v>4.9279999999999999</v>
       </c>
       <c r="G44" s="4">
-        <v>4.7270000000000003</v>
+        <v>4.7210000000000001</v>
       </c>
       <c r="H44" s="4">
-        <v>4.431</v>
+        <v>4.4260000000000002</v>
       </c>
       <c r="I44" s="4">
-        <v>4.2089999999999996</v>
+        <v>4.17</v>
       </c>
       <c r="J44" s="4">
-        <v>4.1790000000000003</v>
+        <v>4.173</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
+        <v>80</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="4">
+        <v>5.149</v>
+      </c>
+      <c r="D45" s="4">
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="E45" s="4">
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="F45" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4.7270000000000003</v>
+      </c>
+      <c r="H45" s="4">
+        <v>4.431</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="J45" s="4">
+        <v>4.1790000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>84</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C46" s="4">
         <v>5.1749999999999998</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D46" s="4">
         <v>5.3650000000000002</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="4">
         <v>5.0069999999999997</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="4">
         <v>4.7409999999999997</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <v>4.4329999999999998</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="4">
         <v>4.2240000000000002</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="4">
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D47" s="7"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D48" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4846,7 +4887,7 @@
   <dimension ref="A10:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
